--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/10.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/10.xlsx
@@ -1176,10 +1176,10 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>224</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>375.81</v>
       </c>
     </row>
